--- a/paper2/glm/settings/upperlower_predictorSettings.xlsx
+++ b/paper2/glm/settings/upperlower_predictorSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Desktop\github\locomotionAnalysis\paper2\glm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Desktop\github\locomotionAnalysis\paper2\glm\settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DB0587-4199-434D-990E-49A030775AD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDDB9E0-1CCA-429B-8CA1-6CE079DEDA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="7500" windowHeight="6000" xr2:uid="{4669D966-A741-4C3C-B919-B304607B653B}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15885" xr2:uid="{4669D966-A741-4C3C-B919-B304607B653B}"/>
   </bookViews>
   <sheets>
     <sheet name="predictors" sheetId="1" r:id="rId1"/>
@@ -701,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E69B2E9-D98C-4615-9F0D-8BE0A12B27A9}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,7 +816,7 @@
         <v>0.25</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="s">
         <v>10</v>
